--- a/similarities/split_global/harmonic_similarity_timestamps_208.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_208.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,710 +484,722 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_21</t>
+          <t>jaah_83</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_168</t>
+          <t>jaah_21</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['D#:min', 'A#:maj', 'D#:min'], ['D#:min/A#', 'A#:7', 'D#:min'], ['F#:maj', 'C#:7/F', 'F#:maj']]</t>
+          <t>['E:7', 'A:7', 'D:7', 'G']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:maj', 'A#:min'], ['A#:min/F', 'F:7', 'A#:min'], ['C#:maj/F', 'G#:7', 'C#:maj']]</t>
+          <t>['F:7', 'Bb:7', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:02.660000', '0:00:07.980000'), ('0:02:14.220000', '0:02:19.560000'), ('0:00:38.580000', '0:00:43.300000')]</t>
+          <t>('0:00:23.810000', '0:00:30.780000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:11.700000', '0:00:20.020000'), ('0:01:14.500000', '0:01:20.420000'), ('0:00:35.220000', '0:00:40')]</t>
+          <t>('0:00:13.880000', '0:00:16.430000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-21#t=2.66', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-21#t=134.22', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-21#t=38.58']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-83#t=23.81</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-168#t=11.7', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-168#t=74.5', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-168#t=35.22']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-21#t=13.88</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_153</t>
+          <t>schubert-winterreise_88</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_287</t>
+          <t>schubert-winterreise_48</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['A:maj/E', 'E:7', 'A:maj']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['A/3', 'D', 'A']]</t>
+          <t>['F:maj/C', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:58.400000', '0:01:00.680000')]</t>
+          <t>('0:00:16.040000', '0:00:18.720000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:01:05.810340', '0:01:11.679931')]</t>
+          <t>('0:00:59.500000', '0:01:08.120000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-153#t=58.4']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-88#t=16.04</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-287#t=65.81034']</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-48#t=59.5</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_70</t>
+          <t>jaah_85</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_274</t>
+          <t>isophonics_155</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['G:sus4', 'G', 'C']]</t>
+          <t>['F:min7', 'Ab:7', 'Db']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['Eb:sus4', 'Eb', 'Ab']]</t>
+          <t>['Ab:maj6', 'Ab:7', 'Db']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:12.135000', '0:00:17.431000')]</t>
+          <t>('0:00:36.090000', '0:00:37.830000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:01:07.170090', '0:01:10.699523')]</t>
+          <t>('0:01:29.123000', '0:01:33.410000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-70#t=12.135']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-85#t=36.09</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-274#t=67.17009']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-155#t=89.123</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_46</t>
+          <t>schubert-winterreise_131</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
+          <t>schubert-winterreise_126</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D']]</t>
+          <t>['G:maj/B', 'C:maj', 'G:maj/D']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['D#:maj', 'G#:maj', 'D#:maj']]</t>
+          <t>['D:maj/F#', 'G:maj', 'D:maj']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:28.921995', '0:00:33.101587')]</t>
+          <t>('0:01:01.320000', '0:01:03.700000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:02:07.600000', '0:02:12.400000')]</t>
+          <t>('0:00:58.080000', '0:01:05.660000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-46#t=28.921995']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-131#t=61.32</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-65#t=127.6']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-126#t=58.08</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>jaah_77</t>
+          <t>schubert-winterreise_159</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_35</t>
+          <t>jaah_71</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:7', 'C']]</t>
+          <t>['D:min', 'G:7', 'C:7']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:7', 'C']]</t>
+          <t>['C:min', 'F:7', 'Bb:7']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:07.470000', '0:00:12.620000')]</t>
+          <t>('0:00:57.340000', '0:01:00.960000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:18.783807', '0:00:24.845034')]</t>
+          <t>('0:01:37.390000', '0:01:40.090000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-77#t=7.47']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-159#t=57.34</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-35#t=18.783807']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-71#t=97.39</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>spotify:track:1dxbAIfCASqv6jix2R1Taj</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_96</t>
+          <t>isophonics_165</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_276</t>
+          <t>isophonics_152</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['D:maj', 'A:maj', 'D:maj']]</t>
+          <t>['A', 'D', 'A']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['G', 'D', 'G']]</t>
+          <t>['A/3', 'D', 'A']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:19.727000', '0:00:41.282000')]</t>
+          <t>('0:00:03.599751', '0:00:06.705328')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:09.738333', '0:00:15.380782')]</t>
+          <t>('0:00:04.250000', '0:00:09.179000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-96#t=19.727']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-165#t=3.599751</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-276#t=9.738333']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-152#t=4.25</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_119</t>
+          <t>isophonics_274</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_114</t>
+          <t>jaah_55</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>['Ab', 'Db', 'Ab']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
+          <t>['C', 'F', 'C']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:34.300000', '0:00:49.840000')]</t>
+          <t>('0:00:03.129454', '0:00:05.172811')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:18.160000', '0:00:47.440000')]</t>
+          <t>('0:00:34.410000', '0:00:39.540000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-119#t=34.3']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-274#t=3.129454</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-114#t=18.16']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-55#t=34.41</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>jaah_55</t>
+          <t>schubert-winterreise_91</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
+          <t>isophonics_279</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['C', 'F', 'C']]</t>
+          <t>['D#:maj', 'A#:maj', 'D#:maj']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>['C:maj', 'G/3', 'C:maj']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:34.410000', '0:00:39.540000')]</t>
+          <t>('0:00:00.780000', '0:00:24.040000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:02:04.920000', '0:02:08.840000')]</t>
+          <t>('0:02:37.019000', '0:02:40.636000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-55#t=34.41']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-91#t=0.78</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-26#t=124.92']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-279#t=157.019</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_196</t>
+          <t>jaah_29</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_10</t>
+          <t>isophonics_59</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>['Db', 'Ab', 'Db']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
+          <t>['C/5', 'G', 'C']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:08.700000', '0:00:26.220000')]</t>
+          <t>('0:01:58.640000', '0:02:03.070000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:00.800000', '0:00:10.540000')]</t>
+          <t>('0:00:27.476822', '0:00:35.056893')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-196#t=8.7']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-29#t=118.64</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-10#t=0.8']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-59#t=27.476822</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_175</t>
+          <t>jaah_8</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_136</t>
+          <t>isophonics_45</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['C', 'G', 'F', 'C', 'F', 'C', 'G', 'F', 'C']]</t>
+          <t>['D:min7', 'G:min7', 'C:min7', 'F:7']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['A', 'E/4', 'D/5', 'A', 'D', 'A', 'E/4', 'D/5', 'A']]</t>
+          <t>['A:min7', 'D:min7', 'G:min7', 'C:7']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:01:36.833582', '0:01:52.158752')]</t>
+          <t>('0:00:02.730000', '0:00:04.800000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:30.470000', '0:00:44.796000')]</t>
+          <t>('0:00:36.832000', '0:00:43.027000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-175#t=96.833582']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-8#t=2.73</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-136#t=30.47']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-45#t=36.832</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
+          <t>schubert-winterreise_124</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_50</t>
+          <t>schubert-winterreise_203</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
+          <t>['F:min', 'F#/A#', 'F:min/C']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
+          <t>['G:min', 'G#:maj/C', 'G:min']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:03', '0:00:07.380000')]</t>
+          <t>('0:03:02.640000', '0:03:04.840000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:01.440000', '0:00:06.840000')]</t>
+          <t>('0:00:45.400000', '0:00:48.120000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-142#t=3.0']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-124#t=182.64</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-50#t=1.44']</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-203#t=45.4</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_200</t>
+          <t>schubert-winterreise_187</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
+          <t>schubert-winterreise_118</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
+          <t>['G:7', 'C:min', 'B:dim7/C', 'C:min']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>['E:7', 'A:min', 'G#:dim7', 'A:min']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:24.280000', '0:00:51.080000')]</t>
+          <t>('0:01:12.840000', '0:01:22.480000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:01:40.240000', '0:01:42.380000')]</t>
+          <t>('0:00:20.380000', '0:00:24.760000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-200#t=24.28']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-187#t=72.84</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-129#t=100.24']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-118#t=20.38</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_7</t>
+          <t>schubert-winterreise_74</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_101</t>
+          <t>schubert-winterreise_85</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
+          <t>['F:min', 'C:7', 'F:min']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:(3,5,b7,b9)/B', 'B:min']]</t>
+          <t>['D:min/A', 'A:7', 'D:min']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:01:01.880000', '0:01:07.800000')]</t>
+          <t>('0:00:09.780000', '0:00:14.360000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:30.800000', '0:00:45.300000')]</t>
+          <t>('0:01:49.520000', '0:01:54.200000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-7#t=61.88']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-74#t=9.78</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-101#t=30.8']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-85#t=109.52</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_19</t>
+          <t>isophonics_156</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_149</t>
+          <t>schubert-winterreise_209</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['A', 'D', 'A']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['C:maj/G', 'G:7', 'C:maj']]</t>
+          <t>['D:maj/A', 'G:maj', 'D:maj/A']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:01:06.220000', '0:01:12.300000')]</t>
+          <t>('0:00:11.070127', '0:00:13.723731')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:32.440000', '0:00:34.800000')]</t>
+          <t>('0:02:18.800000', '0:02:24.460000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-19#t=66.22']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-156#t=11.070127</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-149#t=32.44']</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-209#t=138.8</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_152</t>
+          <t>isophonics_246</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
+          <t>isophonics_70</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['A/3', 'E/5', 'A/3']]</t>
+          <t>['A', 'D', 'B:min7']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:maj', 'G:maj']]</t>
+          <t>['G', 'C', 'A:min7']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:14.168000', '0:00:18.573000')]</t>
+          <t>('0:00:12.870226', '0:00:18.187596')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:43.260000', '0:00:45.660000')]</t>
+          <t>('0:00:19.178000', '0:00:22.703000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-152#t=14.168']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-246#t=12.870226</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-173#t=43.26']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-70#t=19.178</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
